--- a/data/Firmen/ipt/2025-02-01/Daily_Motivations.xlsx
+++ b/data/Firmen/ipt/2025-02-01/Daily_Motivations.xlsx
@@ -1,37 +1,112 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrice/Documents/git/thehealthylife/HealthyLifeFrontend01/data/Firmen/ipt/2025-02-01/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E75F65-1FDF-374E-BD8E-02285FC8A2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Motivation_typ</t>
+  </si>
+  <si>
+    <t>Sportfinke</t>
+  </si>
+  <si>
+    <t>Taylor Atwood</t>
+  </si>
+  <si>
+    <t>Summerbody25</t>
+  </si>
+  <si>
+    <t>Iron Man</t>
+  </si>
+  <si>
+    <t>GurkenSalat</t>
+  </si>
+  <si>
+    <t>yKing</t>
+  </si>
+  <si>
+    <t>StayStrong</t>
+  </si>
+  <si>
+    <t>WobblyWheel</t>
+  </si>
+  <si>
+    <t>ClearMind23</t>
+  </si>
+  <si>
+    <t>HealthQuest</t>
+  </si>
+  <si>
+    <t>DeadliftCarror</t>
+  </si>
+  <si>
+    <t>JKL</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>2025-02-01</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>activity</t>
+  </si>
+  <si>
+    <t>weekly_activity</t>
+  </si>
+  <si>
+    <t>2025-02-02</t>
+  </si>
+  <si>
+    <t>2025-02-03</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +121,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,106 +445,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:O7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Motivation_typ</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Sportfinke</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Taylor Atwood</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Summerbody25</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Iron Man</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>GurkenSalat</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>yKing</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>StayStrong</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>WobblyWheel</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>ClearMind23</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>HealthQuest</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>DeadliftCarror</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>JKL</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>OS</t>
-        </is>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2025-02-01</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -531,7 +521,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
@@ -561,16 +551,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2025-02-01</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>activity</t>
-        </is>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -582,7 +568,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -612,16 +598,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2025-02-01</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>weekly_activity</t>
-        </is>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -663,16 +645,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2025-02-02</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -684,7 +662,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -714,16 +692,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2025-02-02</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>activity</t>
-        </is>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -735,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -750,13 +724,13 @@
         <v>1</v>
       </c>
       <c r="K6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="b">
         <v>1</v>
       </c>
       <c r="M6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="b">
         <v>0</v>
@@ -765,16 +739,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2025-02-02</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>weekly_activity</t>
-        </is>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -813,6 +783,147 @@
         <v>0</v>
       </c>
       <c r="O7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O10" t="b">
         <v>0</v>
       </c>
     </row>

--- a/data/Firmen/ipt/2025-02-01/Daily_Motivations.xlsx
+++ b/data/Firmen/ipt/2025-02-01/Daily_Motivations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrice/Documents/git/thehealthylife/HealthyLifeFrontend01/data/Firmen/ipt/2025-02-01/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrice/Documents/git/HealthyLifeFrontend01/data/Firmen/ipt/2025-02-01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E75F65-1FDF-374E-BD8E-02285FC8A2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EEE170-9153-8B4F-9932-973831E80777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>2025-02-03</t>
+  </si>
+  <si>
+    <t>2025-02-04</t>
   </si>
 </sst>
 </file>
@@ -446,15 +449,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:O13"/>
+      <selection activeCell="A14" sqref="A14:O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -850,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -897,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -924,6 +927,147 @@
         <v>0</v>
       </c>
       <c r="O10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" t="b">
+        <v>0</v>
+      </c>
+      <c r="O12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" t="b">
+        <v>0</v>
+      </c>
+      <c r="O13" t="b">
         <v>0</v>
       </c>
     </row>

--- a/data/Firmen/ipt/2025-02-01/Daily_Motivations.xlsx
+++ b/data/Firmen/ipt/2025-02-01/Daily_Motivations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrice/Documents/git/HealthyLifeFrontend01/data/Firmen/ipt/2025-02-01/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrice/Documents/git/thehealthylife/HealthyLifeFrontend01/data/Firmen/ipt/2025-02-01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EEE170-9153-8B4F-9932-973831E80777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5339EC-AEE8-5E48-900B-B524B35065E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>2025-02-04</t>
+  </si>
+  <si>
+    <t>2025-02-05</t>
   </si>
 </sst>
 </file>
@@ -449,15 +452,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:O16"/>
+      <selection activeCell="A17" sqref="A17:O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -991,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -1068,6 +1071,147 @@
         <v>0</v>
       </c>
       <c r="O13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14" t="b">
+        <v>1</v>
+      </c>
+      <c r="O14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" t="b">
+        <v>0</v>
+      </c>
+      <c r="O15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" t="b">
+        <v>1</v>
+      </c>
+      <c r="N16" t="b">
+        <v>0</v>
+      </c>
+      <c r="O16" t="b">
         <v>0</v>
       </c>
     </row>

--- a/data/Firmen/ipt/2025-02-01/Daily_Motivations.xlsx
+++ b/data/Firmen/ipt/2025-02-01/Daily_Motivations.xlsx
@@ -1,118 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrice/Documents/git/thehealthylife/HealthyLifeFrontend01/data/Firmen/ipt/2025-02-01/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5339EC-AEE8-5E48-900B-B524B35065E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Motivation_typ</t>
-  </si>
-  <si>
-    <t>Sportfinke</t>
-  </si>
-  <si>
-    <t>Taylor Atwood</t>
-  </si>
-  <si>
-    <t>Summerbody25</t>
-  </si>
-  <si>
-    <t>Iron Man</t>
-  </si>
-  <si>
-    <t>GurkenSalat</t>
-  </si>
-  <si>
-    <t>yKing</t>
-  </si>
-  <si>
-    <t>StayStrong</t>
-  </si>
-  <si>
-    <t>WobblyWheel</t>
-  </si>
-  <si>
-    <t>ClearMind23</t>
-  </si>
-  <si>
-    <t>HealthQuest</t>
-  </si>
-  <si>
-    <t>DeadliftCarror</t>
-  </si>
-  <si>
-    <t>JKL</t>
-  </si>
-  <si>
-    <t>OS</t>
-  </si>
-  <si>
-    <t>2025-02-01</t>
-  </si>
-  <si>
-    <t>sleep</t>
-  </si>
-  <si>
-    <t>activity</t>
-  </si>
-  <si>
-    <t>weekly_activity</t>
-  </si>
-  <si>
-    <t>2025-02-02</t>
-  </si>
-  <si>
-    <t>2025-02-03</t>
-  </si>
-  <si>
-    <t>2025-02-04</t>
-  </si>
-  <si>
-    <t>2025-02-05</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -127,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -451,71 +420,106 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:O19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Motivation_typ</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Sportfinke</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Taylor Atwood</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Summerbody25</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Iron Man</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>GurkenSalat</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>yKing</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>StayStrong</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>WobblyWheel</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ClearMind23</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>HealthQuest</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>DeadliftCarror</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>JKL</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>OS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -557,12 +561,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -604,12 +612,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -651,12 +663,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -698,12 +714,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -745,12 +765,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -792,12 +816,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-02-03</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -839,12 +867,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-02-03</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -886,12 +918,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-02-03</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -933,12 +969,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-02-04</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -980,12 +1020,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-02-04</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -1027,12 +1071,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-02-04</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -1074,12 +1122,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -1121,12 +1173,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -1147,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="b">
         <v>1</v>
@@ -1168,12 +1224,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -1212,6 +1272,159 @@
         <v>0</v>
       </c>
       <c r="O16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" t="b">
+        <v>1</v>
+      </c>
+      <c r="N17" t="b">
+        <v>1</v>
+      </c>
+      <c r="O17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18" t="b">
+        <v>1</v>
+      </c>
+      <c r="N18" t="b">
+        <v>0</v>
+      </c>
+      <c r="O18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19" t="b">
+        <v>1</v>
+      </c>
+      <c r="N19" t="b">
+        <v>0</v>
+      </c>
+      <c r="O19" t="b">
         <v>0</v>
       </c>
     </row>

--- a/data/Firmen/ipt/2025-02-01/Daily_Motivations.xlsx
+++ b/data/Firmen/ipt/2025-02-01/Daily_Motivations.xlsx
@@ -1,37 +1,124 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrice/Documents/git/HealthyLifeFrontend01/data/Firmen/ipt/2025-02-01/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0A6173-ECF5-2441-A8AC-F85757474303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Motivation_typ</t>
+  </si>
+  <si>
+    <t>Sportfinke</t>
+  </si>
+  <si>
+    <t>Taylor Atwood</t>
+  </si>
+  <si>
+    <t>Summerbody25</t>
+  </si>
+  <si>
+    <t>Iron Man</t>
+  </si>
+  <si>
+    <t>GurkenSalat</t>
+  </si>
+  <si>
+    <t>yKing</t>
+  </si>
+  <si>
+    <t>StayStrong</t>
+  </si>
+  <si>
+    <t>WobblyWheel</t>
+  </si>
+  <si>
+    <t>ClearMind23</t>
+  </si>
+  <si>
+    <t>HealthQuest</t>
+  </si>
+  <si>
+    <t>DeadliftCarror</t>
+  </si>
+  <si>
+    <t>JKL</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>2025-02-01</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>activity</t>
+  </si>
+  <si>
+    <t>weekly_activity</t>
+  </si>
+  <si>
+    <t>2025-02-02</t>
+  </si>
+  <si>
+    <t>2025-02-03</t>
+  </si>
+  <si>
+    <t>2025-02-04</t>
+  </si>
+  <si>
+    <t>2025-02-05</t>
+  </si>
+  <si>
+    <t>2025-02-06</t>
+  </si>
+  <si>
+    <t>2025-02-07</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +133,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,106 +457,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:O19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:O25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Motivation_typ</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Sportfinke</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Taylor Atwood</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Summerbody25</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Iron Man</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>GurkenSalat</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>yKing</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>StayStrong</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>WobblyWheel</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>ClearMind23</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>HealthQuest</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>DeadliftCarror</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>JKL</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>OS</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2025-02-01</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -561,16 +563,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2025-02-01</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>activity</t>
-        </is>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -612,16 +610,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2025-02-01</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>weekly_activity</t>
-        </is>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -663,16 +657,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2025-02-02</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -714,16 +704,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2025-02-02</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>activity</t>
-        </is>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -765,16 +751,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2025-02-02</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>weekly_activity</t>
-        </is>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -816,16 +798,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2025-02-03</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -867,16 +845,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2025-02-03</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>activity</t>
-        </is>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -918,16 +892,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2025-02-03</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>weekly_activity</t>
-        </is>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -969,16 +939,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2025-02-04</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -1020,16 +986,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2025-02-04</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>activity</t>
-        </is>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -1071,16 +1033,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2025-02-04</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>weekly_activity</t>
-        </is>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -1122,16 +1080,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2025-02-05</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -1173,16 +1127,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2025-02-05</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>activity</t>
-        </is>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -1224,16 +1174,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2025-02-05</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>weekly_activity</t>
-        </is>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -1275,16 +1221,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2025-02-06</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
@@ -1326,16 +1268,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2025-02-06</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>activity</t>
-        </is>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -1377,16 +1315,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2025-02-06</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>weekly_activity</t>
-        </is>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -1425,6 +1359,147 @@
         <v>0</v>
       </c>
       <c r="O19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" t="b">
+        <v>1</v>
+      </c>
+      <c r="N20" t="b">
+        <v>1</v>
+      </c>
+      <c r="O20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" t="b">
+        <v>0</v>
+      </c>
+      <c r="O21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" t="b">
+        <v>1</v>
+      </c>
+      <c r="M22" t="b">
+        <v>1</v>
+      </c>
+      <c r="N22" t="b">
+        <v>0</v>
+      </c>
+      <c r="O22" t="b">
         <v>0</v>
       </c>
     </row>

--- a/data/Firmen/ipt/2025-02-01/Daily_Motivations.xlsx
+++ b/data/Firmen/ipt/2025-02-01/Daily_Motivations.xlsx
@@ -1,124 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrice/Documents/git/HealthyLifeFrontend01/data/Firmen/ipt/2025-02-01/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0A6173-ECF5-2441-A8AC-F85757474303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Motivation_typ</t>
-  </si>
-  <si>
-    <t>Sportfinke</t>
-  </si>
-  <si>
-    <t>Taylor Atwood</t>
-  </si>
-  <si>
-    <t>Summerbody25</t>
-  </si>
-  <si>
-    <t>Iron Man</t>
-  </si>
-  <si>
-    <t>GurkenSalat</t>
-  </si>
-  <si>
-    <t>yKing</t>
-  </si>
-  <si>
-    <t>StayStrong</t>
-  </si>
-  <si>
-    <t>WobblyWheel</t>
-  </si>
-  <si>
-    <t>ClearMind23</t>
-  </si>
-  <si>
-    <t>HealthQuest</t>
-  </si>
-  <si>
-    <t>DeadliftCarror</t>
-  </si>
-  <si>
-    <t>JKL</t>
-  </si>
-  <si>
-    <t>OS</t>
-  </si>
-  <si>
-    <t>2025-02-01</t>
-  </si>
-  <si>
-    <t>sleep</t>
-  </si>
-  <si>
-    <t>activity</t>
-  </si>
-  <si>
-    <t>weekly_activity</t>
-  </si>
-  <si>
-    <t>2025-02-02</t>
-  </si>
-  <si>
-    <t>2025-02-03</t>
-  </si>
-  <si>
-    <t>2025-02-04</t>
-  </si>
-  <si>
-    <t>2025-02-05</t>
-  </si>
-  <si>
-    <t>2025-02-06</t>
-  </si>
-  <si>
-    <t>2025-02-07</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -133,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -457,71 +420,106 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:O25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Motivation_typ</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Sportfinke</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Taylor Atwood</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Summerbody25</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Iron Man</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>GurkenSalat</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>yKing</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>StayStrong</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>WobblyWheel</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ClearMind23</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>HealthQuest</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>DeadliftCarror</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>JKL</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>OS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -563,12 +561,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -610,12 +612,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -657,12 +663,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -704,12 +714,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -751,12 +765,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -798,12 +816,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-02-03</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -845,12 +867,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-02-03</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -892,12 +918,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-02-03</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -939,12 +969,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-02-04</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -986,12 +1020,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-02-04</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -1033,12 +1071,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-02-04</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -1080,12 +1122,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -1127,12 +1173,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -1174,12 +1224,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -1221,12 +1275,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
       </c>
       <c r="C17" t="b">
         <v>1</v>
@@ -1268,12 +1326,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -1315,12 +1377,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>18</v>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -1362,12 +1428,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-02-07</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -1409,12 +1479,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>17</v>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-02-07</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -1456,12 +1530,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>18</v>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-02-07</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
       </c>
       <c r="C22" t="b">
         <v>1</v>
@@ -1500,6 +1578,312 @@
         <v>0</v>
       </c>
       <c r="O22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-02-08</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" t="b">
+        <v>1</v>
+      </c>
+      <c r="N23" t="b">
+        <v>1</v>
+      </c>
+      <c r="O23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-02-08</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" t="b">
+        <v>1</v>
+      </c>
+      <c r="M24" t="b">
+        <v>1</v>
+      </c>
+      <c r="N24" t="b">
+        <v>0</v>
+      </c>
+      <c r="O24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-02-08</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" t="b">
+        <v>0</v>
+      </c>
+      <c r="O25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" t="b">
+        <v>1</v>
+      </c>
+      <c r="N26" t="b">
+        <v>1</v>
+      </c>
+      <c r="O26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C27" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" t="b">
+        <v>1</v>
+      </c>
+      <c r="K27" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" t="b">
+        <v>1</v>
+      </c>
+      <c r="M27" t="b">
+        <v>0</v>
+      </c>
+      <c r="N27" t="b">
+        <v>0</v>
+      </c>
+      <c r="O27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" t="b">
+        <v>0</v>
+      </c>
+      <c r="N28" t="b">
+        <v>0</v>
+      </c>
+      <c r="O28" t="b">
         <v>0</v>
       </c>
     </row>

--- a/data/Firmen/ipt/2025-02-01/Daily_Motivations.xlsx
+++ b/data/Firmen/ipt/2025-02-01/Daily_Motivations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,10 +555,10 @@
         <v>1</v>
       </c>
       <c r="N2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -708,10 +708,10 @@
         <v>1</v>
       </c>
       <c r="N5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -861,10 +861,10 @@
         <v>1</v>
       </c>
       <c r="N8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1014,10 +1014,10 @@
         <v>1</v>
       </c>
       <c r="N11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1167,10 +1167,10 @@
         <v>1</v>
       </c>
       <c r="N14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1320,10 +1320,10 @@
         <v>1</v>
       </c>
       <c r="N17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1473,10 +1473,10 @@
         <v>1</v>
       </c>
       <c r="N20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1626,10 +1626,10 @@
         <v>1</v>
       </c>
       <c r="N23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1779,10 +1779,10 @@
         <v>1</v>
       </c>
       <c r="N26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1884,6 +1884,159 @@
         <v>0</v>
       </c>
       <c r="O28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C29" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" t="b">
+        <v>1</v>
+      </c>
+      <c r="N29" t="b">
+        <v>0</v>
+      </c>
+      <c r="O29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" t="b">
+        <v>1</v>
+      </c>
+      <c r="N30" t="b">
+        <v>0</v>
+      </c>
+      <c r="O30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" t="b">
+        <v>0</v>
+      </c>
+      <c r="N31" t="b">
+        <v>0</v>
+      </c>
+      <c r="O31" t="b">
         <v>0</v>
       </c>
     </row>

--- a/data/Firmen/ipt/2025-02-01/Daily_Motivations.xlsx
+++ b/data/Firmen/ipt/2025-02-01/Daily_Motivations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,10 +555,10 @@
         <v>1</v>
       </c>
       <c r="N2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -708,10 +708,10 @@
         <v>1</v>
       </c>
       <c r="N5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -861,10 +861,10 @@
         <v>1</v>
       </c>
       <c r="N8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1014,10 +1014,10 @@
         <v>1</v>
       </c>
       <c r="N11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1167,10 +1167,10 @@
         <v>1</v>
       </c>
       <c r="N14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1320,10 +1320,10 @@
         <v>1</v>
       </c>
       <c r="N17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1473,10 +1473,10 @@
         <v>1</v>
       </c>
       <c r="N20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1626,10 +1626,10 @@
         <v>1</v>
       </c>
       <c r="N23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1779,10 +1779,10 @@
         <v>1</v>
       </c>
       <c r="N26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1821,7 +1821,7 @@
         <v>1</v>
       </c>
       <c r="K27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" t="b">
         <v>1</v>
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
@@ -1932,10 +1932,10 @@
         <v>1</v>
       </c>
       <c r="N29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" t="b">
         <v>0</v>
@@ -2025,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" t="b">
         <v>0</v>
@@ -2037,6 +2037,159 @@
         <v>0</v>
       </c>
       <c r="O31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-02-11</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K32" t="b">
+        <v>1</v>
+      </c>
+      <c r="L32" t="b">
+        <v>1</v>
+      </c>
+      <c r="M32" t="b">
+        <v>1</v>
+      </c>
+      <c r="N32" t="b">
+        <v>1</v>
+      </c>
+      <c r="O32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-02-11</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C33" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" t="b">
+        <v>1</v>
+      </c>
+      <c r="K33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" t="b">
+        <v>1</v>
+      </c>
+      <c r="M33" t="b">
+        <v>1</v>
+      </c>
+      <c r="N33" t="b">
+        <v>0</v>
+      </c>
+      <c r="O33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-02-11</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" t="b">
+        <v>1</v>
+      </c>
+      <c r="K34" t="b">
+        <v>1</v>
+      </c>
+      <c r="L34" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" t="b">
+        <v>1</v>
+      </c>
+      <c r="N34" t="b">
+        <v>0</v>
+      </c>
+      <c r="O34" t="b">
         <v>0</v>
       </c>
     </row>

--- a/data/Firmen/ipt/2025-02-01/Daily_Motivations.xlsx
+++ b/data/Firmen/ipt/2025-02-01/Daily_Motivations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2112,7 +2112,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
@@ -2127,7 +2127,7 @@
         <v>1</v>
       </c>
       <c r="K33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" t="b">
         <v>1</v>
@@ -2163,7 +2163,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
@@ -2190,6 +2190,159 @@
         <v>0</v>
       </c>
       <c r="O34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-02-12</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="b">
+        <v>1</v>
+      </c>
+      <c r="L35" t="b">
+        <v>1</v>
+      </c>
+      <c r="M35" t="b">
+        <v>1</v>
+      </c>
+      <c r="N35" t="b">
+        <v>1</v>
+      </c>
+      <c r="O35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-02-12</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" t="b">
+        <v>1</v>
+      </c>
+      <c r="K36" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" t="b">
+        <v>1</v>
+      </c>
+      <c r="M36" t="b">
+        <v>1</v>
+      </c>
+      <c r="N36" t="b">
+        <v>0</v>
+      </c>
+      <c r="O36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-02-12</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C37" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37" t="b">
+        <v>1</v>
+      </c>
+      <c r="K37" t="b">
+        <v>1</v>
+      </c>
+      <c r="L37" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" t="b">
+        <v>1</v>
+      </c>
+      <c r="N37" t="b">
+        <v>0</v>
+      </c>
+      <c r="O37" t="b">
         <v>0</v>
       </c>
     </row>

--- a/data/Firmen/ipt/2025-02-01/Daily_Motivations.xlsx
+++ b/data/Firmen/ipt/2025-02-01/Daily_Motivations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2229,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" t="b">
         <v>1</v>
@@ -2280,7 +2280,7 @@
         <v>1</v>
       </c>
       <c r="K36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" t="b">
         <v>1</v>
@@ -2343,6 +2343,159 @@
         <v>0</v>
       </c>
       <c r="O37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" t="b">
+        <v>1</v>
+      </c>
+      <c r="K38" t="b">
+        <v>1</v>
+      </c>
+      <c r="L38" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" t="b">
+        <v>1</v>
+      </c>
+      <c r="N38" t="b">
+        <v>1</v>
+      </c>
+      <c r="O38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+      <c r="F39" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" t="b">
+        <v>1</v>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M39" t="b">
+        <v>0</v>
+      </c>
+      <c r="N39" t="b">
+        <v>0</v>
+      </c>
+      <c r="O39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="b">
+        <v>1</v>
+      </c>
+      <c r="F40" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" t="b">
+        <v>1</v>
+      </c>
+      <c r="K40" t="b">
+        <v>1</v>
+      </c>
+      <c r="L40" t="b">
+        <v>1</v>
+      </c>
+      <c r="M40" t="b">
+        <v>1</v>
+      </c>
+      <c r="N40" t="b">
+        <v>0</v>
+      </c>
+      <c r="O40" t="b">
         <v>0</v>
       </c>
     </row>

--- a/data/Firmen/ipt/2025-02-01/Daily_Motivations.xlsx
+++ b/data/Firmen/ipt/2025-02-01/Daily_Motivations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2499,6 +2499,618 @@
         <v>0</v>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-02-14</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C41" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" t="b">
+        <v>1</v>
+      </c>
+      <c r="K41" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" t="b">
+        <v>1</v>
+      </c>
+      <c r="M41" t="b">
+        <v>1</v>
+      </c>
+      <c r="N41" t="b">
+        <v>1</v>
+      </c>
+      <c r="O41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-02-14</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C42" t="b">
+        <v>1</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="b">
+        <v>1</v>
+      </c>
+      <c r="K42" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" t="b">
+        <v>1</v>
+      </c>
+      <c r="M42" t="b">
+        <v>0</v>
+      </c>
+      <c r="N42" t="b">
+        <v>0</v>
+      </c>
+      <c r="O42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-02-14</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C43" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="b">
+        <v>1</v>
+      </c>
+      <c r="F43" t="b">
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" t="b">
+        <v>1</v>
+      </c>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" t="b">
+        <v>1</v>
+      </c>
+      <c r="M43" t="b">
+        <v>1</v>
+      </c>
+      <c r="N43" t="b">
+        <v>0</v>
+      </c>
+      <c r="O43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-02-15</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C44" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" t="b">
+        <v>1</v>
+      </c>
+      <c r="F44" t="b">
+        <v>1</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" t="b">
+        <v>1</v>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" t="b">
+        <v>1</v>
+      </c>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" t="b">
+        <v>1</v>
+      </c>
+      <c r="M44" t="b">
+        <v>1</v>
+      </c>
+      <c r="N44" t="b">
+        <v>1</v>
+      </c>
+      <c r="O44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-02-15</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="b">
+        <v>1</v>
+      </c>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" t="b">
+        <v>1</v>
+      </c>
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" t="b">
+        <v>1</v>
+      </c>
+      <c r="K45" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" t="b">
+        <v>1</v>
+      </c>
+      <c r="M45" t="b">
+        <v>0</v>
+      </c>
+      <c r="N45" t="b">
+        <v>0</v>
+      </c>
+      <c r="O45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-02-15</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C46" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" t="b">
+        <v>0</v>
+      </c>
+      <c r="N46" t="b">
+        <v>0</v>
+      </c>
+      <c r="O46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C47" t="b">
+        <v>1</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="b">
+        <v>1</v>
+      </c>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="b">
+        <v>1</v>
+      </c>
+      <c r="K47" t="b">
+        <v>1</v>
+      </c>
+      <c r="L47" t="b">
+        <v>1</v>
+      </c>
+      <c r="M47" t="b">
+        <v>1</v>
+      </c>
+      <c r="N47" t="b">
+        <v>1</v>
+      </c>
+      <c r="O47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C48" t="b">
+        <v>0</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" t="b">
+        <v>1</v>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" t="b">
+        <v>0</v>
+      </c>
+      <c r="N48" t="b">
+        <v>0</v>
+      </c>
+      <c r="O48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C49" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" t="b">
+        <v>0</v>
+      </c>
+      <c r="M49" t="b">
+        <v>0</v>
+      </c>
+      <c r="N49" t="b">
+        <v>0</v>
+      </c>
+      <c r="O49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C50" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="b">
+        <v>1</v>
+      </c>
+      <c r="F50" t="b">
+        <v>1</v>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" t="b">
+        <v>1</v>
+      </c>
+      <c r="K50" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" t="b">
+        <v>1</v>
+      </c>
+      <c r="M50" t="b">
+        <v>1</v>
+      </c>
+      <c r="N50" t="b">
+        <v>1</v>
+      </c>
+      <c r="O50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C51" t="b">
+        <v>0</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="b">
+        <v>1</v>
+      </c>
+      <c r="F51" t="b">
+        <v>1</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51" t="b">
+        <v>1</v>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" t="b">
+        <v>1</v>
+      </c>
+      <c r="K51" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" t="b">
+        <v>1</v>
+      </c>
+      <c r="M51" t="b">
+        <v>1</v>
+      </c>
+      <c r="N51" t="b">
+        <v>0</v>
+      </c>
+      <c r="O51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C52" t="b">
+        <v>0</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" t="b">
+        <v>1</v>
+      </c>
+      <c r="K52" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" t="b">
+        <v>0</v>
+      </c>
+      <c r="N52" t="b">
+        <v>0</v>
+      </c>
+      <c r="O52" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/Firmen/ipt/2025-02-01/Daily_Motivations.xlsx
+++ b/data/Firmen/ipt/2025-02-01/Daily_Motivations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O52"/>
+  <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2739,7 +2739,7 @@
         <v>1</v>
       </c>
       <c r="K45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" t="b">
         <v>1</v>
@@ -3108,6 +3108,159 @@
         <v>0</v>
       </c>
       <c r="O52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C53" t="b">
+        <v>1</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="b">
+        <v>1</v>
+      </c>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" t="b">
+        <v>1</v>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
+      <c r="L53" t="b">
+        <v>1</v>
+      </c>
+      <c r="M53" t="b">
+        <v>1</v>
+      </c>
+      <c r="N53" t="b">
+        <v>1</v>
+      </c>
+      <c r="O53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C54" t="b">
+        <v>0</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="b">
+        <v>1</v>
+      </c>
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="b">
+        <v>0</v>
+      </c>
+      <c r="K54" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" t="b">
+        <v>0</v>
+      </c>
+      <c r="M54" t="b">
+        <v>1</v>
+      </c>
+      <c r="N54" t="b">
+        <v>0</v>
+      </c>
+      <c r="O54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C55" t="b">
+        <v>0</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" t="b">
+        <v>1</v>
+      </c>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" t="b">
+        <v>1</v>
+      </c>
+      <c r="K55" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" t="b">
+        <v>0</v>
+      </c>
+      <c r="M55" t="b">
+        <v>0</v>
+      </c>
+      <c r="N55" t="b">
+        <v>0</v>
+      </c>
+      <c r="O55" t="b">
         <v>0</v>
       </c>
     </row>

--- a/data/Firmen/ipt/2025-02-01/Daily_Motivations.xlsx
+++ b/data/Firmen/ipt/2025-02-01/Daily_Motivations.xlsx
@@ -1,37 +1,173 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrice/Documents/git/HealthyLifeFrontend01/data/Firmen/ipt/2025-02-01/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F746105B-9584-A341-9FF2-ECE75F1F0282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="37">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Motivation_typ</t>
+  </si>
+  <si>
+    <t>Sportfinke</t>
+  </si>
+  <si>
+    <t>Taylor Atwood</t>
+  </si>
+  <si>
+    <t>Summerbody25</t>
+  </si>
+  <si>
+    <t>Iron Man</t>
+  </si>
+  <si>
+    <t>GurkenSalat</t>
+  </si>
+  <si>
+    <t>yKing</t>
+  </si>
+  <si>
+    <t>StayStrong</t>
+  </si>
+  <si>
+    <t>WobblyWheel</t>
+  </si>
+  <si>
+    <t>ClearMind23</t>
+  </si>
+  <si>
+    <t>HealthQuest</t>
+  </si>
+  <si>
+    <t>DeadliftCarror</t>
+  </si>
+  <si>
+    <t>JKL</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>2025-02-01</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>activity</t>
+  </si>
+  <si>
+    <t>weekly_activity</t>
+  </si>
+  <si>
+    <t>2025-02-02</t>
+  </si>
+  <si>
+    <t>2025-02-03</t>
+  </si>
+  <si>
+    <t>2025-02-04</t>
+  </si>
+  <si>
+    <t>2025-02-05</t>
+  </si>
+  <si>
+    <t>2025-02-06</t>
+  </si>
+  <si>
+    <t>2025-02-07</t>
+  </si>
+  <si>
+    <t>2025-02-08</t>
+  </si>
+  <si>
+    <t>2025-02-09</t>
+  </si>
+  <si>
+    <t>2025-02-10</t>
+  </si>
+  <si>
+    <t>2025-02-11</t>
+  </si>
+  <si>
+    <t>2025-02-12</t>
+  </si>
+  <si>
+    <t>2025-02-13</t>
+  </si>
+  <si>
+    <t>2025-02-14</t>
+  </si>
+  <si>
+    <t>2025-02-15</t>
+  </si>
+  <si>
+    <t>2025-02-16</t>
+  </si>
+  <si>
+    <t>2025-02-17</t>
+  </si>
+  <si>
+    <t>2025-02-18</t>
+  </si>
+  <si>
+    <t>2025-02-19</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +182,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,106 +506,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:O55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:O61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Motivation_typ</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Sportfinke</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Taylor Atwood</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Summerbody25</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Iron Man</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>GurkenSalat</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>yKing</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>StayStrong</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>WobblyWheel</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>ClearMind23</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>HealthQuest</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>DeadliftCarror</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>JKL</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>OS</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2025-02-01</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -555,22 +606,18 @@
         <v>1</v>
       </c>
       <c r="N2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2025-02-01</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>activity</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -612,16 +659,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2025-02-01</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>weekly_activity</t>
-        </is>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -663,16 +706,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2025-02-02</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -708,22 +747,18 @@
         <v>1</v>
       </c>
       <c r="N5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2025-02-02</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>activity</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -765,16 +800,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2025-02-02</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>weekly_activity</t>
-        </is>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -816,16 +847,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2025-02-03</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -861,22 +888,18 @@
         <v>1</v>
       </c>
       <c r="N8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2025-02-03</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>activity</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -918,16 +941,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2025-02-03</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>weekly_activity</t>
-        </is>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -969,16 +988,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2025-02-04</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -1014,22 +1029,18 @@
         <v>1</v>
       </c>
       <c r="N11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2025-02-04</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>activity</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -1071,16 +1082,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2025-02-04</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>weekly_activity</t>
-        </is>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -1122,16 +1129,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2025-02-05</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -1167,22 +1170,18 @@
         <v>1</v>
       </c>
       <c r="N14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2025-02-05</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>activity</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -1224,16 +1223,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2025-02-05</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>weekly_activity</t>
-        </is>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -1275,16 +1270,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2025-02-06</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
@@ -1320,22 +1311,18 @@
         <v>1</v>
       </c>
       <c r="N17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2025-02-06</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>activity</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -1377,16 +1364,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2025-02-06</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>weekly_activity</t>
-        </is>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -1428,16 +1411,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2025-02-07</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -1473,22 +1452,18 @@
         <v>1</v>
       </c>
       <c r="N20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2025-02-07</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>activity</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -1530,16 +1505,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2025-02-07</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>weekly_activity</t>
-        </is>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
@@ -1581,16 +1552,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2025-02-08</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
@@ -1626,22 +1593,18 @@
         <v>1</v>
       </c>
       <c r="N23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2025-02-08</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>activity</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
@@ -1683,16 +1646,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2025-02-08</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>weekly_activity</t>
-        </is>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -1734,16 +1693,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2025-02-09</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
@@ -1779,22 +1734,18 @@
         <v>1</v>
       </c>
       <c r="N26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2025-02-09</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>activity</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
@@ -1836,16 +1787,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2025-02-09</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>weekly_activity</t>
-        </is>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
@@ -1887,16 +1834,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2025-02-10</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
       </c>
       <c r="C29" t="b">
         <v>1</v>
@@ -1932,22 +1875,18 @@
         <v>1</v>
       </c>
       <c r="N29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2025-02-10</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>activity</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
@@ -1989,16 +1928,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2025-02-10</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>weekly_activity</t>
-        </is>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
@@ -2040,16 +1975,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2025-02-11</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
@@ -2085,22 +2016,18 @@
         <v>1</v>
       </c>
       <c r="N32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2025-02-11</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>activity</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" t="s">
+        <v>17</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
@@ -2142,16 +2069,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2025-02-11</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>weekly_activity</t>
-        </is>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" t="s">
+        <v>18</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
@@ -2193,16 +2116,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2025-02-12</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
@@ -2238,22 +2157,18 @@
         <v>1</v>
       </c>
       <c r="N35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2025-02-12</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>activity</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" t="s">
+        <v>17</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
@@ -2295,16 +2210,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2025-02-12</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>weekly_activity</t>
-        </is>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
@@ -2346,16 +2257,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2025-02-13</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
@@ -2391,22 +2298,18 @@
         <v>1</v>
       </c>
       <c r="N38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>2025-02-13</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>activity</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" t="s">
+        <v>17</v>
       </c>
       <c r="C39" t="b">
         <v>0</v>
@@ -2448,16 +2351,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>2025-02-13</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>weekly_activity</t>
-        </is>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
@@ -2499,16 +2398,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>2025-02-14</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" t="s">
+        <v>16</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
@@ -2544,22 +2439,18 @@
         <v>1</v>
       </c>
       <c r="N41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O41" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>2025-02-14</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>activity</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" t="s">
+        <v>17</v>
       </c>
       <c r="C42" t="b">
         <v>1</v>
@@ -2601,16 +2492,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>2025-02-14</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>weekly_activity</t>
-        </is>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" t="s">
+        <v>18</v>
       </c>
       <c r="C43" t="b">
         <v>1</v>
@@ -2652,16 +2539,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>2025-02-15</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" t="s">
+        <v>16</v>
       </c>
       <c r="C44" t="b">
         <v>1</v>
@@ -2697,22 +2580,18 @@
         <v>1</v>
       </c>
       <c r="N44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O44" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>2025-02-15</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>activity</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" t="s">
+        <v>17</v>
       </c>
       <c r="C45" t="b">
         <v>1</v>
@@ -2754,16 +2633,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>2025-02-15</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>weekly_activity</t>
-        </is>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" t="s">
+        <v>18</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
@@ -2805,16 +2680,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>2025-02-16</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
       </c>
       <c r="C47" t="b">
         <v>1</v>
@@ -2850,22 +2721,18 @@
         <v>1</v>
       </c>
       <c r="N47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>2025-02-16</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>activity</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" t="s">
+        <v>17</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
@@ -2907,16 +2774,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>2025-02-16</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>weekly_activity</t>
-        </is>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" t="s">
+        <v>18</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
@@ -2958,16 +2821,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>2025-02-17</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" t="s">
+        <v>16</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
@@ -3003,22 +2862,18 @@
         <v>1</v>
       </c>
       <c r="N50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O50" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>2025-02-17</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>activity</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" t="s">
+        <v>17</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
@@ -3060,16 +2915,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>2025-02-17</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>weekly_activity</t>
-        </is>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" t="s">
+        <v>18</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
@@ -3111,16 +2962,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>2025-02-18</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" t="s">
+        <v>16</v>
       </c>
       <c r="C53" t="b">
         <v>1</v>
@@ -3141,7 +2988,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="b">
         <v>1</v>
@@ -3156,22 +3003,18 @@
         <v>1</v>
       </c>
       <c r="N53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O53" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>2025-02-18</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>activity</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" t="s">
+        <v>17</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
@@ -3192,7 +3035,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="b">
         <v>0</v>
@@ -3213,16 +3056,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>2025-02-18</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>weekly_activity</t>
-        </is>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" t="s">
+        <v>18</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
@@ -3261,6 +3100,147 @@
         <v>0</v>
       </c>
       <c r="O55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>36</v>
+      </c>
+      <c r="B56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" t="b">
+        <v>1</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" t="b">
+        <v>1</v>
+      </c>
+      <c r="F56" t="b">
+        <v>1</v>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" t="b">
+        <v>1</v>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" t="b">
+        <v>0</v>
+      </c>
+      <c r="K56" t="b">
+        <v>1</v>
+      </c>
+      <c r="L56" t="b">
+        <v>1</v>
+      </c>
+      <c r="M56" t="b">
+        <v>1</v>
+      </c>
+      <c r="N56" t="b">
+        <v>0</v>
+      </c>
+      <c r="O56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" t="b">
+        <v>1</v>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" t="b">
+        <v>1</v>
+      </c>
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" t="b">
+        <v>1</v>
+      </c>
+      <c r="J57" t="b">
+        <v>1</v>
+      </c>
+      <c r="K57" t="b">
+        <v>0</v>
+      </c>
+      <c r="L57" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57" t="b">
+        <v>1</v>
+      </c>
+      <c r="N57" t="b">
+        <v>0</v>
+      </c>
+      <c r="O57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" t="b">
+        <v>0</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" t="b">
+        <v>1</v>
+      </c>
+      <c r="F58" t="b">
+        <v>0</v>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="b">
+        <v>1</v>
+      </c>
+      <c r="J58" t="b">
+        <v>1</v>
+      </c>
+      <c r="K58" t="b">
+        <v>0</v>
+      </c>
+      <c r="L58" t="b">
+        <v>0</v>
+      </c>
+      <c r="M58" t="b">
+        <v>1</v>
+      </c>
+      <c r="N58" t="b">
+        <v>0</v>
+      </c>
+      <c r="O58" t="b">
         <v>0</v>
       </c>
     </row>

--- a/data/Firmen/ipt/2025-02-01/Daily_Motivations.xlsx
+++ b/data/Firmen/ipt/2025-02-01/Daily_Motivations.xlsx
@@ -1,173 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrice/Documents/git/HealthyLifeFrontend01/data/Firmen/ipt/2025-02-01/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F746105B-9584-A341-9FF2-ECE75F1F0282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="37">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Motivation_typ</t>
-  </si>
-  <si>
-    <t>Sportfinke</t>
-  </si>
-  <si>
-    <t>Taylor Atwood</t>
-  </si>
-  <si>
-    <t>Summerbody25</t>
-  </si>
-  <si>
-    <t>Iron Man</t>
-  </si>
-  <si>
-    <t>GurkenSalat</t>
-  </si>
-  <si>
-    <t>yKing</t>
-  </si>
-  <si>
-    <t>StayStrong</t>
-  </si>
-  <si>
-    <t>WobblyWheel</t>
-  </si>
-  <si>
-    <t>ClearMind23</t>
-  </si>
-  <si>
-    <t>HealthQuest</t>
-  </si>
-  <si>
-    <t>DeadliftCarror</t>
-  </si>
-  <si>
-    <t>JKL</t>
-  </si>
-  <si>
-    <t>OS</t>
-  </si>
-  <si>
-    <t>2025-02-01</t>
-  </si>
-  <si>
-    <t>sleep</t>
-  </si>
-  <si>
-    <t>activity</t>
-  </si>
-  <si>
-    <t>weekly_activity</t>
-  </si>
-  <si>
-    <t>2025-02-02</t>
-  </si>
-  <si>
-    <t>2025-02-03</t>
-  </si>
-  <si>
-    <t>2025-02-04</t>
-  </si>
-  <si>
-    <t>2025-02-05</t>
-  </si>
-  <si>
-    <t>2025-02-06</t>
-  </si>
-  <si>
-    <t>2025-02-07</t>
-  </si>
-  <si>
-    <t>2025-02-08</t>
-  </si>
-  <si>
-    <t>2025-02-09</t>
-  </si>
-  <si>
-    <t>2025-02-10</t>
-  </si>
-  <si>
-    <t>2025-02-11</t>
-  </si>
-  <si>
-    <t>2025-02-12</t>
-  </si>
-  <si>
-    <t>2025-02-13</t>
-  </si>
-  <si>
-    <t>2025-02-14</t>
-  </si>
-  <si>
-    <t>2025-02-15</t>
-  </si>
-  <si>
-    <t>2025-02-16</t>
-  </si>
-  <si>
-    <t>2025-02-17</t>
-  </si>
-  <si>
-    <t>2025-02-18</t>
-  </si>
-  <si>
-    <t>2025-02-19</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -182,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -506,71 +420,106 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:O61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Motivation_typ</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Sportfinke</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Taylor Atwood</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Summerbody25</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Iron Man</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>GurkenSalat</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>yKing</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>StayStrong</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>WobblyWheel</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ClearMind23</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>HealthQuest</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>DeadliftCarror</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>JKL</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>OS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -606,18 +555,22 @@
         <v>1</v>
       </c>
       <c r="N2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -659,12 +612,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -706,12 +663,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -747,18 +708,22 @@
         <v>1</v>
       </c>
       <c r="N5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -800,12 +765,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -847,12 +816,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-02-03</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -888,18 +861,22 @@
         <v>1</v>
       </c>
       <c r="N8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-02-03</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -941,12 +918,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-02-03</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -988,12 +969,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-02-04</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -1029,18 +1014,22 @@
         <v>1</v>
       </c>
       <c r="N11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-02-04</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -1082,12 +1071,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-02-04</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -1129,12 +1122,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -1170,18 +1167,22 @@
         <v>1</v>
       </c>
       <c r="N14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -1223,12 +1224,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -1270,12 +1275,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
       </c>
       <c r="C17" t="b">
         <v>1</v>
@@ -1311,18 +1320,22 @@
         <v>1</v>
       </c>
       <c r="N17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -1364,12 +1377,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>18</v>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -1411,12 +1428,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-02-07</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -1452,18 +1473,22 @@
         <v>1</v>
       </c>
       <c r="N20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-02-07</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -1505,12 +1530,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>18</v>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-02-07</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
       </c>
       <c r="C22" t="b">
         <v>1</v>
@@ -1552,12 +1581,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>16</v>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-02-08</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
       </c>
       <c r="C23" t="b">
         <v>1</v>
@@ -1593,18 +1626,22 @@
         <v>1</v>
       </c>
       <c r="N23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-02-08</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
       </c>
       <c r="C24" t="b">
         <v>1</v>
@@ -1646,12 +1683,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>18</v>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-02-08</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -1693,12 +1734,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>16</v>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
       </c>
       <c r="C26" t="b">
         <v>1</v>
@@ -1734,18 +1779,22 @@
         <v>1</v>
       </c>
       <c r="N26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
       </c>
       <c r="C27" t="b">
         <v>1</v>
@@ -1787,12 +1836,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>18</v>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
       </c>
       <c r="C28" t="b">
         <v>0</v>
@@ -1834,12 +1887,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>16</v>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
       </c>
       <c r="C29" t="b">
         <v>1</v>
@@ -1875,18 +1932,22 @@
         <v>1</v>
       </c>
       <c r="N29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
       </c>
       <c r="C30" t="b">
         <v>0</v>
@@ -1928,12 +1989,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" t="s">
-        <v>18</v>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
       </c>
       <c r="C31" t="b">
         <v>0</v>
@@ -1975,12 +2040,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" t="s">
-        <v>16</v>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-02-11</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
       </c>
       <c r="C32" t="b">
         <v>0</v>
@@ -2016,18 +2085,22 @@
         <v>1</v>
       </c>
       <c r="N32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-02-11</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
       </c>
       <c r="C33" t="b">
         <v>0</v>
@@ -2069,12 +2142,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" t="s">
-        <v>18</v>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-02-11</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
       </c>
       <c r="C34" t="b">
         <v>0</v>
@@ -2116,12 +2193,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" t="s">
-        <v>16</v>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-02-12</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
       </c>
       <c r="C35" t="b">
         <v>0</v>
@@ -2157,18 +2238,22 @@
         <v>1</v>
       </c>
       <c r="N35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-02-12</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
       </c>
       <c r="C36" t="b">
         <v>0</v>
@@ -2210,12 +2295,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" t="s">
-        <v>18</v>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-02-12</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
       </c>
       <c r="C37" t="b">
         <v>0</v>
@@ -2257,12 +2346,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" t="s">
-        <v>16</v>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
       </c>
       <c r="C38" t="b">
         <v>0</v>
@@ -2298,18 +2391,22 @@
         <v>1</v>
       </c>
       <c r="N38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>30</v>
-      </c>
-      <c r="B39" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
       </c>
       <c r="C39" t="b">
         <v>0</v>
@@ -2351,12 +2448,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>30</v>
-      </c>
-      <c r="B40" t="s">
-        <v>18</v>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
       </c>
       <c r="C40" t="b">
         <v>0</v>
@@ -2398,12 +2499,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B41" t="s">
-        <v>16</v>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-02-14</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
       </c>
       <c r="C41" t="b">
         <v>0</v>
@@ -2439,18 +2544,22 @@
         <v>1</v>
       </c>
       <c r="N41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-02-14</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
       </c>
       <c r="C42" t="b">
         <v>1</v>
@@ -2492,12 +2601,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>31</v>
-      </c>
-      <c r="B43" t="s">
-        <v>18</v>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-02-14</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
       </c>
       <c r="C43" t="b">
         <v>1</v>
@@ -2539,12 +2652,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>32</v>
-      </c>
-      <c r="B44" t="s">
-        <v>16</v>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-02-15</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
       </c>
       <c r="C44" t="b">
         <v>1</v>
@@ -2580,18 +2697,22 @@
         <v>1</v>
       </c>
       <c r="N44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>32</v>
-      </c>
-      <c r="B45" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-02-15</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
       </c>
       <c r="C45" t="b">
         <v>1</v>
@@ -2633,12 +2754,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>32</v>
-      </c>
-      <c r="B46" t="s">
-        <v>18</v>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-02-15</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
       </c>
       <c r="C46" t="b">
         <v>0</v>
@@ -2680,12 +2805,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>33</v>
-      </c>
-      <c r="B47" t="s">
-        <v>16</v>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
       </c>
       <c r="C47" t="b">
         <v>1</v>
@@ -2721,18 +2850,22 @@
         <v>1</v>
       </c>
       <c r="N47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>33</v>
-      </c>
-      <c r="B48" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
       </c>
       <c r="C48" t="b">
         <v>0</v>
@@ -2774,12 +2907,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>33</v>
-      </c>
-      <c r="B49" t="s">
-        <v>18</v>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
       </c>
       <c r="C49" t="b">
         <v>0</v>
@@ -2821,12 +2958,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>34</v>
-      </c>
-      <c r="B50" t="s">
-        <v>16</v>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
       </c>
       <c r="C50" t="b">
         <v>0</v>
@@ -2862,18 +3003,22 @@
         <v>1</v>
       </c>
       <c r="N50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>34</v>
-      </c>
-      <c r="B51" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
       </c>
       <c r="C51" t="b">
         <v>0</v>
@@ -2915,12 +3060,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>34</v>
-      </c>
-      <c r="B52" t="s">
-        <v>18</v>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
       </c>
       <c r="C52" t="b">
         <v>0</v>
@@ -2962,12 +3111,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>35</v>
-      </c>
-      <c r="B53" t="s">
-        <v>16</v>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
       </c>
       <c r="C53" t="b">
         <v>1</v>
@@ -3003,18 +3156,22 @@
         <v>1</v>
       </c>
       <c r="N53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>35</v>
-      </c>
-      <c r="B54" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
       </c>
       <c r="C54" t="b">
         <v>0</v>
@@ -3044,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="L54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54" t="b">
         <v>1</v>
@@ -3056,12 +3213,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>35</v>
-      </c>
-      <c r="B55" t="s">
-        <v>18</v>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
       </c>
       <c r="C55" t="b">
         <v>0</v>
@@ -3103,12 +3264,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>36</v>
-      </c>
-      <c r="B56" t="s">
-        <v>16</v>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-02-19</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
       </c>
       <c r="C56" t="b">
         <v>1</v>
@@ -3144,18 +3309,22 @@
         <v>1</v>
       </c>
       <c r="N56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O56" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>36</v>
-      </c>
-      <c r="B57" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-02-19</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
       </c>
       <c r="C57" t="b">
         <v>1</v>
@@ -3197,12 +3366,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>36</v>
-      </c>
-      <c r="B58" t="s">
-        <v>18</v>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-02-19</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
       </c>
       <c r="C58" t="b">
         <v>0</v>
@@ -3241,6 +3414,159 @@
         <v>0</v>
       </c>
       <c r="O58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-02-20</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C59" t="b">
+        <v>1</v>
+      </c>
+      <c r="D59" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" t="b">
+        <v>1</v>
+      </c>
+      <c r="F59" t="b">
+        <v>1</v>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59" t="b">
+        <v>1</v>
+      </c>
+      <c r="K59" t="b">
+        <v>1</v>
+      </c>
+      <c r="L59" t="b">
+        <v>0</v>
+      </c>
+      <c r="M59" t="b">
+        <v>1</v>
+      </c>
+      <c r="N59" t="b">
+        <v>1</v>
+      </c>
+      <c r="O59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-02-20</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C60" t="b">
+        <v>0</v>
+      </c>
+      <c r="D60" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" t="b">
+        <v>0</v>
+      </c>
+      <c r="G60" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60" t="b">
+        <v>1</v>
+      </c>
+      <c r="I60" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" t="b">
+        <v>1</v>
+      </c>
+      <c r="K60" t="b">
+        <v>0</v>
+      </c>
+      <c r="L60" t="b">
+        <v>1</v>
+      </c>
+      <c r="M60" t="b">
+        <v>1</v>
+      </c>
+      <c r="N60" t="b">
+        <v>0</v>
+      </c>
+      <c r="O60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-02-20</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C61" t="b">
+        <v>0</v>
+      </c>
+      <c r="D61" t="b">
+        <v>0</v>
+      </c>
+      <c r="E61" t="b">
+        <v>1</v>
+      </c>
+      <c r="F61" t="b">
+        <v>0</v>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" t="b">
+        <v>1</v>
+      </c>
+      <c r="K61" t="b">
+        <v>0</v>
+      </c>
+      <c r="L61" t="b">
+        <v>0</v>
+      </c>
+      <c r="M61" t="b">
+        <v>1</v>
+      </c>
+      <c r="N61" t="b">
+        <v>0</v>
+      </c>
+      <c r="O61" t="b">
         <v>0</v>
       </c>
     </row>

--- a/data/Firmen/ipt/2025-02-01/Daily_Motivations.xlsx
+++ b/data/Firmen/ipt/2025-02-01/Daily_Motivations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O61"/>
+  <dimension ref="A1:O70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" t="b">
         <v>0</v>
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -786,19 +786,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
@@ -807,10 +807,10 @@
         <v>0</v>
       </c>
       <c r="M7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="b">
         <v>0</v>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -942,28 +942,28 @@
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
       </c>
       <c r="L10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="b">
         <v>1</v>
       </c>
       <c r="N10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" t="b">
         <v>0</v>
@@ -1083,19 +1083,19 @@
         </is>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
@@ -1104,19 +1104,19 @@
         <v>1</v>
       </c>
       <c r="J13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
       </c>
       <c r="L13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="b">
         <v>1</v>
       </c>
       <c r="N13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" t="b">
         <v>0</v>
@@ -1248,10 +1248,10 @@
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
@@ -1260,7 +1260,7 @@
         <v>1</v>
       </c>
       <c r="K16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="b">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="N16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" t="b">
         <v>0</v>
@@ -1404,7 +1404,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         <v>1</v>
       </c>
       <c r="K19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="b">
         <v>1</v>
@@ -1422,7 +1422,7 @@
         <v>1</v>
       </c>
       <c r="N19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" t="b">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>1</v>
       </c>
       <c r="N22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" t="b">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" t="b">
         <v>0</v>
@@ -1848,7 +1848,7 @@
         </is>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -1857,22 +1857,22 @@
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
       <c r="I28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" t="b">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="C31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
       </c>
       <c r="E31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
       <c r="I31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" t="b">
         <v>1</v>
@@ -2031,10 +2031,10 @@
         <v>0</v>
       </c>
       <c r="M31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" t="b">
         <v>0</v>
@@ -2154,7 +2154,7 @@
         </is>
       </c>
       <c r="C34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -2166,7 +2166,7 @@
         <v>1</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -2181,13 +2181,13 @@
         <v>1</v>
       </c>
       <c r="L34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" t="b">
         <v>1</v>
       </c>
       <c r="N34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34" t="b">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         </is>
       </c>
       <c r="C37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="b">
         <v>0</v>
@@ -2319,10 +2319,10 @@
         <v>1</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="b">
         <v>1</v>
@@ -2334,13 +2334,13 @@
         <v>1</v>
       </c>
       <c r="L37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" t="b">
         <v>1</v>
       </c>
       <c r="N37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O37" t="b">
         <v>0</v>
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="C40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="b">
         <v>1</v>
@@ -2493,7 +2493,7 @@
         <v>1</v>
       </c>
       <c r="N40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40" t="b">
         <v>0</v>
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="N43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43" t="b">
         <v>0</v>
@@ -2787,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" t="b">
         <v>0</v>
@@ -2799,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O46" t="b">
         <v>0</v>
@@ -2931,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -2940,7 +2940,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="N49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49" t="b">
         <v>0</v>
@@ -3078,19 +3078,19 @@
         <v>0</v>
       </c>
       <c r="E52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
       </c>
       <c r="I52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="b">
         <v>1</v>
@@ -3105,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="N52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O52" t="b">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>1</v>
       </c>
       <c r="F55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
       </c>
       <c r="I55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="b">
         <v>1</v>
@@ -3252,13 +3252,13 @@
         <v>0</v>
       </c>
       <c r="L55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O55" t="b">
         <v>0</v>
@@ -3378,7 +3378,7 @@
         </is>
       </c>
       <c r="C58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" t="b">
         <v>0</v>
@@ -3387,13 +3387,13 @@
         <v>1</v>
       </c>
       <c r="F58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="b">
         <v>1</v>
@@ -3405,13 +3405,13 @@
         <v>0</v>
       </c>
       <c r="L58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58" t="b">
         <v>1</v>
       </c>
       <c r="N58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O58" t="b">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="F60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
@@ -3504,7 +3504,7 @@
         <v>1</v>
       </c>
       <c r="K60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60" t="b">
         <v>1</v>
@@ -3531,7 +3531,7 @@
         </is>
       </c>
       <c r="C61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" t="b">
         <v>0</v>
@@ -3540,13 +3540,13 @@
         <v>1</v>
       </c>
       <c r="F61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="b">
         <v>1</v>
@@ -3555,18 +3555,477 @@
         <v>1</v>
       </c>
       <c r="K61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61" t="b">
         <v>1</v>
       </c>
       <c r="N61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C62" t="b">
+        <v>1</v>
+      </c>
+      <c r="D62" t="b">
+        <v>0</v>
+      </c>
+      <c r="E62" t="b">
+        <v>1</v>
+      </c>
+      <c r="F62" t="b">
+        <v>0</v>
+      </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" t="b">
+        <v>1</v>
+      </c>
+      <c r="I62" t="b">
+        <v>1</v>
+      </c>
+      <c r="J62" t="b">
+        <v>0</v>
+      </c>
+      <c r="K62" t="b">
+        <v>1</v>
+      </c>
+      <c r="L62" t="b">
+        <v>1</v>
+      </c>
+      <c r="M62" t="b">
+        <v>1</v>
+      </c>
+      <c r="N62" t="b">
+        <v>1</v>
+      </c>
+      <c r="O62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C63" t="b">
+        <v>1</v>
+      </c>
+      <c r="D63" t="b">
+        <v>0</v>
+      </c>
+      <c r="E63" t="b">
+        <v>1</v>
+      </c>
+      <c r="F63" t="b">
+        <v>0</v>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" t="b">
+        <v>1</v>
+      </c>
+      <c r="I63" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" t="b">
+        <v>0</v>
+      </c>
+      <c r="K63" t="b">
+        <v>0</v>
+      </c>
+      <c r="L63" t="b">
+        <v>1</v>
+      </c>
+      <c r="M63" t="b">
+        <v>0</v>
+      </c>
+      <c r="N63" t="b">
+        <v>0</v>
+      </c>
+      <c r="O63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C64" t="b">
+        <v>1</v>
+      </c>
+      <c r="D64" t="b">
+        <v>0</v>
+      </c>
+      <c r="E64" t="b">
+        <v>1</v>
+      </c>
+      <c r="F64" t="b">
+        <v>1</v>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" t="b">
+        <v>1</v>
+      </c>
+      <c r="K64" t="b">
+        <v>1</v>
+      </c>
+      <c r="L64" t="b">
+        <v>1</v>
+      </c>
+      <c r="M64" t="b">
+        <v>1</v>
+      </c>
+      <c r="N64" t="b">
+        <v>1</v>
+      </c>
+      <c r="O64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-02-22</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C65" t="b">
+        <v>1</v>
+      </c>
+      <c r="D65" t="b">
+        <v>0</v>
+      </c>
+      <c r="E65" t="b">
+        <v>1</v>
+      </c>
+      <c r="F65" t="b">
+        <v>1</v>
+      </c>
+      <c r="G65" t="b">
+        <v>0</v>
+      </c>
+      <c r="H65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" t="b">
+        <v>1</v>
+      </c>
+      <c r="J65" t="b">
+        <v>1</v>
+      </c>
+      <c r="K65" t="b">
+        <v>1</v>
+      </c>
+      <c r="L65" t="b">
+        <v>1</v>
+      </c>
+      <c r="M65" t="b">
+        <v>1</v>
+      </c>
+      <c r="N65" t="b">
+        <v>1</v>
+      </c>
+      <c r="O65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-02-22</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C66" t="b">
+        <v>1</v>
+      </c>
+      <c r="D66" t="b">
+        <v>0</v>
+      </c>
+      <c r="E66" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66" t="b">
+        <v>0</v>
+      </c>
+      <c r="G66" t="b">
+        <v>0</v>
+      </c>
+      <c r="H66" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66" t="b">
+        <v>1</v>
+      </c>
+      <c r="J66" t="b">
+        <v>1</v>
+      </c>
+      <c r="K66" t="b">
+        <v>1</v>
+      </c>
+      <c r="L66" t="b">
+        <v>0</v>
+      </c>
+      <c r="M66" t="b">
+        <v>0</v>
+      </c>
+      <c r="N66" t="b">
+        <v>0</v>
+      </c>
+      <c r="O66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-02-22</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E67" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+      <c r="G67" t="b">
+        <v>0</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" t="b">
+        <v>1</v>
+      </c>
+      <c r="K67" t="b">
+        <v>0</v>
+      </c>
+      <c r="L67" t="b">
+        <v>0</v>
+      </c>
+      <c r="M67" t="b">
+        <v>0</v>
+      </c>
+      <c r="N67" t="b">
+        <v>1</v>
+      </c>
+      <c r="O67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C68" t="b">
+        <v>1</v>
+      </c>
+      <c r="D68" t="b">
+        <v>0</v>
+      </c>
+      <c r="E68" t="b">
+        <v>1</v>
+      </c>
+      <c r="F68" t="b">
+        <v>1</v>
+      </c>
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" t="b">
+        <v>1</v>
+      </c>
+      <c r="K68" t="b">
+        <v>1</v>
+      </c>
+      <c r="L68" t="b">
+        <v>1</v>
+      </c>
+      <c r="M68" t="b">
+        <v>1</v>
+      </c>
+      <c r="N68" t="b">
+        <v>1</v>
+      </c>
+      <c r="O68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C69" t="b">
+        <v>0</v>
+      </c>
+      <c r="D69" t="b">
+        <v>0</v>
+      </c>
+      <c r="E69" t="b">
+        <v>1</v>
+      </c>
+      <c r="F69" t="b">
+        <v>0</v>
+      </c>
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I69" t="b">
+        <v>1</v>
+      </c>
+      <c r="J69" t="b">
+        <v>1</v>
+      </c>
+      <c r="K69" t="b">
+        <v>0</v>
+      </c>
+      <c r="L69" t="b">
+        <v>0</v>
+      </c>
+      <c r="M69" t="b">
+        <v>0</v>
+      </c>
+      <c r="N69" t="b">
+        <v>0</v>
+      </c>
+      <c r="O69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C70" t="b">
+        <v>0</v>
+      </c>
+      <c r="D70" t="b">
+        <v>0</v>
+      </c>
+      <c r="E70" t="b">
+        <v>0</v>
+      </c>
+      <c r="F70" t="b">
+        <v>0</v>
+      </c>
+      <c r="G70" t="b">
+        <v>0</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="b">
+        <v>1</v>
+      </c>
+      <c r="J70" t="b">
+        <v>1</v>
+      </c>
+      <c r="K70" t="b">
+        <v>0</v>
+      </c>
+      <c r="L70" t="b">
+        <v>0</v>
+      </c>
+      <c r="M70" t="b">
+        <v>0</v>
+      </c>
+      <c r="N70" t="b">
+        <v>1</v>
+      </c>
+      <c r="O70" t="b">
         <v>0</v>
       </c>
     </row>

--- a/data/Firmen/ipt/2025-02-01/Daily_Motivations.xlsx
+++ b/data/Firmen/ipt/2025-02-01/Daily_Motivations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O70"/>
+  <dimension ref="A1:O76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,10 +555,10 @@
         <v>1</v>
       </c>
       <c r="N2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -708,10 +708,10 @@
         <v>1</v>
       </c>
       <c r="N5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -861,10 +861,10 @@
         <v>1</v>
       </c>
       <c r="N8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1014,10 +1014,10 @@
         <v>1</v>
       </c>
       <c r="N11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1167,10 +1167,10 @@
         <v>1</v>
       </c>
       <c r="N14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1320,10 +1320,10 @@
         <v>1</v>
       </c>
       <c r="N17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1473,10 +1473,10 @@
         <v>1</v>
       </c>
       <c r="N20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1626,10 +1626,10 @@
         <v>1</v>
       </c>
       <c r="N23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1779,10 +1779,10 @@
         <v>1</v>
       </c>
       <c r="N26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1932,10 +1932,10 @@
         <v>1</v>
       </c>
       <c r="N29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2085,10 +2085,10 @@
         <v>1</v>
       </c>
       <c r="N32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -2238,10 +2238,10 @@
         <v>1</v>
       </c>
       <c r="N35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -2391,10 +2391,10 @@
         <v>1</v>
       </c>
       <c r="N38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2544,10 +2544,10 @@
         <v>1</v>
       </c>
       <c r="N41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -2697,10 +2697,10 @@
         <v>1</v>
       </c>
       <c r="N44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2850,10 +2850,10 @@
         <v>1</v>
       </c>
       <c r="N47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -3003,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="N50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -3156,10 +3156,10 @@
         <v>1</v>
       </c>
       <c r="N53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -3309,10 +3309,10 @@
         <v>1</v>
       </c>
       <c r="N56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -3462,10 +3462,10 @@
         <v>1</v>
       </c>
       <c r="N59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -3615,10 +3615,10 @@
         <v>1</v>
       </c>
       <c r="N62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -3768,10 +3768,10 @@
         <v>1</v>
       </c>
       <c r="N65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -3795,7 +3795,7 @@
         <v>0</v>
       </c>
       <c r="F66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" t="b">
         <v>1</v>
@@ -3921,10 +3921,10 @@
         <v>1</v>
       </c>
       <c r="N68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -3948,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
@@ -3999,7 +3999,7 @@
         <v>0</v>
       </c>
       <c r="F70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
@@ -4026,6 +4026,312 @@
         <v>1</v>
       </c>
       <c r="O70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C71" t="b">
+        <v>1</v>
+      </c>
+      <c r="D71" t="b">
+        <v>0</v>
+      </c>
+      <c r="E71" t="b">
+        <v>0</v>
+      </c>
+      <c r="F71" t="b">
+        <v>1</v>
+      </c>
+      <c r="G71" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" t="b">
+        <v>1</v>
+      </c>
+      <c r="J71" t="b">
+        <v>1</v>
+      </c>
+      <c r="K71" t="b">
+        <v>1</v>
+      </c>
+      <c r="L71" t="b">
+        <v>1</v>
+      </c>
+      <c r="M71" t="b">
+        <v>1</v>
+      </c>
+      <c r="N71" t="b">
+        <v>0</v>
+      </c>
+      <c r="O71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C72" t="b">
+        <v>1</v>
+      </c>
+      <c r="D72" t="b">
+        <v>0</v>
+      </c>
+      <c r="E72" t="b">
+        <v>0</v>
+      </c>
+      <c r="F72" t="b">
+        <v>1</v>
+      </c>
+      <c r="G72" t="b">
+        <v>1</v>
+      </c>
+      <c r="H72" t="b">
+        <v>1</v>
+      </c>
+      <c r="I72" t="b">
+        <v>0</v>
+      </c>
+      <c r="J72" t="b">
+        <v>1</v>
+      </c>
+      <c r="K72" t="b">
+        <v>0</v>
+      </c>
+      <c r="L72" t="b">
+        <v>0</v>
+      </c>
+      <c r="M72" t="b">
+        <v>0</v>
+      </c>
+      <c r="N72" t="b">
+        <v>0</v>
+      </c>
+      <c r="O72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C73" t="b">
+        <v>1</v>
+      </c>
+      <c r="D73" t="b">
+        <v>0</v>
+      </c>
+      <c r="E73" t="b">
+        <v>0</v>
+      </c>
+      <c r="F73" t="b">
+        <v>1</v>
+      </c>
+      <c r="G73" t="b">
+        <v>1</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="b">
+        <v>1</v>
+      </c>
+      <c r="J73" t="b">
+        <v>1</v>
+      </c>
+      <c r="K73" t="b">
+        <v>0</v>
+      </c>
+      <c r="L73" t="b">
+        <v>0</v>
+      </c>
+      <c r="M73" t="b">
+        <v>0</v>
+      </c>
+      <c r="N73" t="b">
+        <v>1</v>
+      </c>
+      <c r="O73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C74" t="b">
+        <v>0</v>
+      </c>
+      <c r="D74" t="b">
+        <v>0</v>
+      </c>
+      <c r="E74" t="b">
+        <v>1</v>
+      </c>
+      <c r="F74" t="b">
+        <v>1</v>
+      </c>
+      <c r="G74" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" t="b">
+        <v>1</v>
+      </c>
+      <c r="J74" t="b">
+        <v>1</v>
+      </c>
+      <c r="K74" t="b">
+        <v>1</v>
+      </c>
+      <c r="L74" t="b">
+        <v>0</v>
+      </c>
+      <c r="M74" t="b">
+        <v>1</v>
+      </c>
+      <c r="N74" t="b">
+        <v>0</v>
+      </c>
+      <c r="O74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C75" t="b">
+        <v>0</v>
+      </c>
+      <c r="D75" t="b">
+        <v>0</v>
+      </c>
+      <c r="E75" t="b">
+        <v>1</v>
+      </c>
+      <c r="F75" t="b">
+        <v>0</v>
+      </c>
+      <c r="G75" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75" t="b">
+        <v>1</v>
+      </c>
+      <c r="I75" t="b">
+        <v>0</v>
+      </c>
+      <c r="J75" t="b">
+        <v>1</v>
+      </c>
+      <c r="K75" t="b">
+        <v>0</v>
+      </c>
+      <c r="L75" t="b">
+        <v>1</v>
+      </c>
+      <c r="M75" t="b">
+        <v>0</v>
+      </c>
+      <c r="N75" t="b">
+        <v>0</v>
+      </c>
+      <c r="O75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C76" t="b">
+        <v>1</v>
+      </c>
+      <c r="D76" t="b">
+        <v>0</v>
+      </c>
+      <c r="E76" t="b">
+        <v>1</v>
+      </c>
+      <c r="F76" t="b">
+        <v>1</v>
+      </c>
+      <c r="G76" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="b">
+        <v>1</v>
+      </c>
+      <c r="J76" t="b">
+        <v>1</v>
+      </c>
+      <c r="K76" t="b">
+        <v>0</v>
+      </c>
+      <c r="L76" t="b">
+        <v>0</v>
+      </c>
+      <c r="M76" t="b">
+        <v>0</v>
+      </c>
+      <c r="N76" t="b">
+        <v>1</v>
+      </c>
+      <c r="O76" t="b">
         <v>0</v>
       </c>
     </row>

--- a/data/Firmen/ipt/2025-02-01/Daily_Motivations.xlsx
+++ b/data/Firmen/ipt/2025-02-01/Daily_Motivations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O76"/>
+  <dimension ref="A1:O79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4203,7 +4203,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
@@ -4245,7 +4245,7 @@
         </is>
       </c>
       <c r="C75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" t="b">
         <v>0</v>
@@ -4254,7 +4254,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
@@ -4263,7 +4263,7 @@
         <v>1</v>
       </c>
       <c r="I75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="b">
         <v>1</v>
@@ -4275,7 +4275,7 @@
         <v>1</v>
       </c>
       <c r="M75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N75" t="b">
         <v>0</v>
@@ -4332,6 +4332,159 @@
         <v>1</v>
       </c>
       <c r="O76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-02-26</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C77" t="b">
+        <v>0</v>
+      </c>
+      <c r="D77" t="b">
+        <v>0</v>
+      </c>
+      <c r="E77" t="b">
+        <v>1</v>
+      </c>
+      <c r="F77" t="b">
+        <v>0</v>
+      </c>
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" t="b">
+        <v>1</v>
+      </c>
+      <c r="I77" t="b">
+        <v>1</v>
+      </c>
+      <c r="J77" t="b">
+        <v>1</v>
+      </c>
+      <c r="K77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L77" t="b">
+        <v>1</v>
+      </c>
+      <c r="M77" t="b">
+        <v>1</v>
+      </c>
+      <c r="N77" t="b">
+        <v>0</v>
+      </c>
+      <c r="O77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-02-26</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C78" t="b">
+        <v>1</v>
+      </c>
+      <c r="D78" t="b">
+        <v>0</v>
+      </c>
+      <c r="E78" t="b">
+        <v>0</v>
+      </c>
+      <c r="F78" t="b">
+        <v>0</v>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" t="b">
+        <v>1</v>
+      </c>
+      <c r="K78" t="b">
+        <v>0</v>
+      </c>
+      <c r="L78" t="b">
+        <v>0</v>
+      </c>
+      <c r="M78" t="b">
+        <v>1</v>
+      </c>
+      <c r="N78" t="b">
+        <v>0</v>
+      </c>
+      <c r="O78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-02-26</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C79" t="b">
+        <v>1</v>
+      </c>
+      <c r="D79" t="b">
+        <v>0</v>
+      </c>
+      <c r="E79" t="b">
+        <v>1</v>
+      </c>
+      <c r="F79" t="b">
+        <v>1</v>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="b">
+        <v>1</v>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="b">
+        <v>1</v>
+      </c>
+      <c r="K79" t="b">
+        <v>0</v>
+      </c>
+      <c r="L79" t="b">
+        <v>0</v>
+      </c>
+      <c r="M79" t="b">
+        <v>1</v>
+      </c>
+      <c r="N79" t="b">
+        <v>1</v>
+      </c>
+      <c r="O79" t="b">
         <v>0</v>
       </c>
     </row>

--- a/data/Firmen/ipt/2025-02-01/Daily_Motivations.xlsx
+++ b/data/Firmen/ipt/2025-02-01/Daily_Motivations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O79"/>
+  <dimension ref="A1:O82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,10 +555,10 @@
         <v>1</v>
       </c>
       <c r="N2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -708,10 +708,10 @@
         <v>1</v>
       </c>
       <c r="N5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -861,10 +861,10 @@
         <v>1</v>
       </c>
       <c r="N8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1014,10 +1014,10 @@
         <v>1</v>
       </c>
       <c r="N11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1167,10 +1167,10 @@
         <v>1</v>
       </c>
       <c r="N14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1320,10 +1320,10 @@
         <v>1</v>
       </c>
       <c r="N17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1473,10 +1473,10 @@
         <v>1</v>
       </c>
       <c r="N20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1626,10 +1626,10 @@
         <v>1</v>
       </c>
       <c r="N23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1779,10 +1779,10 @@
         <v>1</v>
       </c>
       <c r="N26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1932,10 +1932,10 @@
         <v>1</v>
       </c>
       <c r="N29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -2085,10 +2085,10 @@
         <v>1</v>
       </c>
       <c r="N32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -2238,10 +2238,10 @@
         <v>1</v>
       </c>
       <c r="N35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -2391,10 +2391,10 @@
         <v>1</v>
       </c>
       <c r="N38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -2544,10 +2544,10 @@
         <v>1</v>
       </c>
       <c r="N41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -2697,10 +2697,10 @@
         <v>1</v>
       </c>
       <c r="N44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -2850,10 +2850,10 @@
         <v>1</v>
       </c>
       <c r="N47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -3003,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="N50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -3156,10 +3156,10 @@
         <v>1</v>
       </c>
       <c r="N53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -3309,10 +3309,10 @@
         <v>1</v>
       </c>
       <c r="N56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -3462,10 +3462,10 @@
         <v>1</v>
       </c>
       <c r="N59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -3615,10 +3615,10 @@
         <v>1</v>
       </c>
       <c r="N62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -3768,10 +3768,10 @@
         <v>1</v>
       </c>
       <c r="N65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -3921,10 +3921,10 @@
         <v>1</v>
       </c>
       <c r="N68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -4074,10 +4074,10 @@
         <v>1</v>
       </c>
       <c r="N71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -4227,10 +4227,10 @@
         <v>1</v>
       </c>
       <c r="N74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -4380,10 +4380,10 @@
         <v>1</v>
       </c>
       <c r="N77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -4416,7 +4416,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="b">
         <v>1</v>
@@ -4485,6 +4485,159 @@
         <v>1</v>
       </c>
       <c r="O79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C80" t="b">
+        <v>0</v>
+      </c>
+      <c r="D80" t="b">
+        <v>0</v>
+      </c>
+      <c r="E80" t="b">
+        <v>0</v>
+      </c>
+      <c r="F80" t="b">
+        <v>0</v>
+      </c>
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="b">
+        <v>1</v>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="b">
+        <v>1</v>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="b">
+        <v>1</v>
+      </c>
+      <c r="M80" t="b">
+        <v>1</v>
+      </c>
+      <c r="N80" t="b">
+        <v>1</v>
+      </c>
+      <c r="O80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C81" t="b">
+        <v>1</v>
+      </c>
+      <c r="D81" t="b">
+        <v>0</v>
+      </c>
+      <c r="E81" t="b">
+        <v>1</v>
+      </c>
+      <c r="F81" t="b">
+        <v>0</v>
+      </c>
+      <c r="G81" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81" t="b">
+        <v>1</v>
+      </c>
+      <c r="I81" t="b">
+        <v>1</v>
+      </c>
+      <c r="J81" t="b">
+        <v>1</v>
+      </c>
+      <c r="K81" t="b">
+        <v>0</v>
+      </c>
+      <c r="L81" t="b">
+        <v>0</v>
+      </c>
+      <c r="M81" t="b">
+        <v>1</v>
+      </c>
+      <c r="N81" t="b">
+        <v>0</v>
+      </c>
+      <c r="O81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C82" t="b">
+        <v>1</v>
+      </c>
+      <c r="D82" t="b">
+        <v>0</v>
+      </c>
+      <c r="E82" t="b">
+        <v>1</v>
+      </c>
+      <c r="F82" t="b">
+        <v>1</v>
+      </c>
+      <c r="G82" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I82" t="b">
+        <v>1</v>
+      </c>
+      <c r="J82" t="b">
+        <v>1</v>
+      </c>
+      <c r="K82" t="b">
+        <v>0</v>
+      </c>
+      <c r="L82" t="b">
+        <v>0</v>
+      </c>
+      <c r="M82" t="b">
+        <v>1</v>
+      </c>
+      <c r="N82" t="b">
+        <v>1</v>
+      </c>
+      <c r="O82" t="b">
         <v>0</v>
       </c>
     </row>

--- a/data/Firmen/ipt/2025-02-01/Daily_Motivations.xlsx
+++ b/data/Firmen/ipt/2025-02-01/Daily_Motivations.xlsx
@@ -1,37 +1,187 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrice/Documents/git/HealthyLifeFrontend01/data/Firmen/ipt/2025-02-01/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32B275B-28F6-6540-9433-B57217902DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="46">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Motivation_typ</t>
+  </si>
+  <si>
+    <t>Sportfinke</t>
+  </si>
+  <si>
+    <t>Taylor Atwood</t>
+  </si>
+  <si>
+    <t>Summerbody25</t>
+  </si>
+  <si>
+    <t>Iron Man</t>
+  </si>
+  <si>
+    <t>GurkenSalat</t>
+  </si>
+  <si>
+    <t>yKing</t>
+  </si>
+  <si>
+    <t>StayStrong</t>
+  </si>
+  <si>
+    <t>WobblyWheel</t>
+  </si>
+  <si>
+    <t>ClearMind23</t>
+  </si>
+  <si>
+    <t>HealthQuest</t>
+  </si>
+  <si>
+    <t>DeadliftCarror</t>
+  </si>
+  <si>
+    <t>JKL</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>2025-02-01</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>activity</t>
+  </si>
+  <si>
+    <t>weekly_activity</t>
+  </si>
+  <si>
+    <t>2025-02-02</t>
+  </si>
+  <si>
+    <t>2025-02-03</t>
+  </si>
+  <si>
+    <t>2025-02-04</t>
+  </si>
+  <si>
+    <t>2025-02-05</t>
+  </si>
+  <si>
+    <t>2025-02-06</t>
+  </si>
+  <si>
+    <t>2025-02-07</t>
+  </si>
+  <si>
+    <t>2025-02-08</t>
+  </si>
+  <si>
+    <t>2025-02-09</t>
+  </si>
+  <si>
+    <t>2025-02-10</t>
+  </si>
+  <si>
+    <t>2025-02-11</t>
+  </si>
+  <si>
+    <t>2025-02-12</t>
+  </si>
+  <si>
+    <t>2025-02-13</t>
+  </si>
+  <si>
+    <t>2025-02-14</t>
+  </si>
+  <si>
+    <t>2025-02-15</t>
+  </si>
+  <si>
+    <t>2025-02-16</t>
+  </si>
+  <si>
+    <t>2025-02-17</t>
+  </si>
+  <si>
+    <t>2025-02-18</t>
+  </si>
+  <si>
+    <t>2025-02-19</t>
+  </si>
+  <si>
+    <t>2025-02-20</t>
+  </si>
+  <si>
+    <t>2025-02-21</t>
+  </si>
+  <si>
+    <t>2025-02-22</t>
+  </si>
+  <si>
+    <t>2025-02-23</t>
+  </si>
+  <si>
+    <t>2025-02-24</t>
+  </si>
+  <si>
+    <t>2025-02-25</t>
+  </si>
+  <si>
+    <t>2025-02-26</t>
+  </si>
+  <si>
+    <t>2025-02-27</t>
+  </si>
+  <si>
+    <t>2025-02-28</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +196,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,106 +520,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:O82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86:O88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="46.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Motivation_typ</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Sportfinke</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Taylor Atwood</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Summerbody25</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Iron Man</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>GurkenSalat</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>yKing</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>StayStrong</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>WobblyWheel</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>ClearMind23</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>HealthQuest</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>DeadliftCarror</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>JKL</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>OS</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2025-02-01</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -561,16 +626,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2025-02-01</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>activity</t>
-        </is>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -612,67 +673,59 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2025-02-01</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>weekly_activity</t>
-        </is>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
       </c>
       <c r="C4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" t="b">
         <v>1</v>
       </c>
       <c r="O4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2025-02-02</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -714,16 +767,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2025-02-02</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>activity</t>
-        </is>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -765,25 +814,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2025-02-02</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>weekly_activity</t>
-        </is>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -792,7 +837,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
@@ -801,10 +846,10 @@
         <v>1</v>
       </c>
       <c r="K7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="b">
         <v>1</v>
@@ -813,19 +858,15 @@
         <v>1</v>
       </c>
       <c r="O7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2025-02-03</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -867,16 +908,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2025-02-03</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>activity</t>
-        </is>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -918,25 +955,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2025-02-03</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>weekly_activity</t>
-        </is>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -945,7 +978,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
@@ -954,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="b">
         <v>1</v>
@@ -966,19 +999,15 @@
         <v>1</v>
       </c>
       <c r="O10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2025-02-04</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -1020,16 +1049,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2025-02-04</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>activity</t>
-        </is>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -1071,22 +1096,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2025-02-04</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>weekly_activity</t>
-        </is>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -1098,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="b">
         <v>1</v>
@@ -1107,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="K13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="b">
         <v>1</v>
@@ -1119,19 +1140,15 @@
         <v>1</v>
       </c>
       <c r="O13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2025-02-05</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -1173,16 +1190,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2025-02-05</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>activity</t>
-        </is>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -1224,22 +1237,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2025-02-05</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>weekly_activity</t>
-        </is>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -1272,19 +1281,15 @@
         <v>1</v>
       </c>
       <c r="O16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2025-02-06</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
@@ -1326,16 +1331,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2025-02-06</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>activity</t>
-        </is>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -1377,22 +1378,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2025-02-06</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>weekly_activity</t>
-        </is>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -1425,19 +1422,15 @@
         <v>1</v>
       </c>
       <c r="O19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2025-02-07</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -1479,16 +1472,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2025-02-07</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>activity</t>
-        </is>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -1530,22 +1519,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2025-02-07</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>weekly_activity</t>
-        </is>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
@@ -1578,19 +1563,15 @@
         <v>1</v>
       </c>
       <c r="O22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2025-02-08</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
@@ -1632,16 +1613,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2025-02-08</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>activity</t>
-        </is>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
@@ -1683,67 +1660,59 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2025-02-08</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>weekly_activity</t>
-        </is>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" t="b">
         <v>1</v>
       </c>
       <c r="O25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2025-02-09</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
@@ -1785,16 +1754,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2025-02-09</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>activity</t>
-        </is>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
@@ -1836,25 +1801,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2025-02-09</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>weekly_activity</t>
-        </is>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="b">
         <v>1</v>
@@ -1863,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="b">
         <v>1</v>
@@ -1875,28 +1836,24 @@
         <v>1</v>
       </c>
       <c r="L28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" t="b">
         <v>1</v>
       </c>
       <c r="O28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2025-02-10</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
       </c>
       <c r="C29" t="b">
         <v>1</v>
@@ -1938,16 +1895,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2025-02-10</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>activity</t>
-        </is>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
@@ -1989,22 +1942,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2025-02-10</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>weekly_activity</t>
-        </is>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
       </c>
       <c r="C31" t="b">
         <v>1</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="b">
         <v>1</v>
@@ -2016,7 +1965,7 @@
         <v>1</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="b">
         <v>1</v>
@@ -2028,7 +1977,7 @@
         <v>1</v>
       </c>
       <c r="L31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" t="b">
         <v>1</v>
@@ -2037,19 +1986,15 @@
         <v>1</v>
       </c>
       <c r="O31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2025-02-11</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
@@ -2091,16 +2036,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2025-02-11</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>activity</t>
-        </is>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" t="s">
+        <v>17</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
@@ -2142,22 +2083,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2025-02-11</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>weekly_activity</t>
-        </is>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" t="s">
+        <v>18</v>
       </c>
       <c r="C34" t="b">
         <v>1</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="b">
         <v>1</v>
@@ -2169,7 +2106,7 @@
         <v>1</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="b">
         <v>1</v>
@@ -2190,19 +2127,15 @@
         <v>1</v>
       </c>
       <c r="O34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2025-02-12</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
@@ -2244,16 +2177,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2025-02-12</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>activity</t>
-        </is>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" t="s">
+        <v>17</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
@@ -2295,22 +2224,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2025-02-12</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>weekly_activity</t>
-        </is>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
       </c>
       <c r="C37" t="b">
         <v>1</v>
       </c>
       <c r="D37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="b">
         <v>1</v>
@@ -2343,19 +2268,15 @@
         <v>1</v>
       </c>
       <c r="O37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2025-02-13</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
@@ -2397,16 +2318,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>2025-02-13</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>activity</t>
-        </is>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" t="s">
+        <v>17</v>
       </c>
       <c r="C39" t="b">
         <v>0</v>
@@ -2448,22 +2365,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>2025-02-13</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>weekly_activity</t>
-        </is>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
       </c>
       <c r="C40" t="b">
         <v>1</v>
       </c>
       <c r="D40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="b">
         <v>1</v>
@@ -2496,19 +2409,15 @@
         <v>1</v>
       </c>
       <c r="O40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>2025-02-14</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" t="s">
+        <v>16</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
@@ -2550,16 +2459,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>2025-02-14</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>activity</t>
-        </is>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" t="s">
+        <v>17</v>
       </c>
       <c r="C42" t="b">
         <v>1</v>
@@ -2601,22 +2506,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>2025-02-14</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>weekly_activity</t>
-        </is>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" t="s">
+        <v>18</v>
       </c>
       <c r="C43" t="b">
         <v>1</v>
       </c>
       <c r="D43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="b">
         <v>1</v>
@@ -2649,19 +2550,15 @@
         <v>1</v>
       </c>
       <c r="O43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>2025-02-15</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" t="s">
+        <v>16</v>
       </c>
       <c r="C44" t="b">
         <v>1</v>
@@ -2703,16 +2600,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>2025-02-15</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>activity</t>
-        </is>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" t="s">
+        <v>17</v>
       </c>
       <c r="C45" t="b">
         <v>1</v>
@@ -2754,67 +2647,59 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>2025-02-15</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>weekly_activity</t>
-        </is>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" t="s">
+        <v>18</v>
       </c>
       <c r="C46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="b">
         <v>1</v>
       </c>
       <c r="K46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46" t="b">
         <v>1</v>
       </c>
       <c r="O46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>2025-02-16</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
       </c>
       <c r="C47" t="b">
         <v>1</v>
@@ -2856,16 +2741,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>2025-02-16</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>activity</t>
-        </is>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" t="s">
+        <v>17</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
@@ -2907,67 +2788,59 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>2025-02-16</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>weekly_activity</t>
-        </is>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" t="s">
+        <v>18</v>
       </c>
       <c r="C49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="b">
         <v>1</v>
       </c>
       <c r="K49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N49" t="b">
         <v>1</v>
       </c>
       <c r="O49" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>2025-02-17</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" t="s">
+        <v>16</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
@@ -3009,16 +2882,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>2025-02-17</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>activity</t>
-        </is>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" t="s">
+        <v>17</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
@@ -3060,22 +2929,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>2025-02-17</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>weekly_activity</t>
-        </is>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" t="s">
+        <v>18</v>
       </c>
       <c r="C52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="b">
         <v>1</v>
@@ -3087,7 +2952,7 @@
         <v>1</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="b">
         <v>1</v>
@@ -3096,31 +2961,27 @@
         <v>1</v>
       </c>
       <c r="K52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N52" t="b">
         <v>1</v>
       </c>
       <c r="O52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>2025-02-18</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" t="s">
+        <v>16</v>
       </c>
       <c r="C53" t="b">
         <v>1</v>
@@ -3162,16 +3023,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>2025-02-18</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>activity</t>
-        </is>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" t="s">
+        <v>17</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
@@ -3213,22 +3070,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>2025-02-18</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>weekly_activity</t>
-        </is>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" t="s">
+        <v>18</v>
       </c>
       <c r="C55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" t="b">
         <v>1</v>
@@ -3240,7 +3093,7 @@
         <v>1</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="b">
         <v>1</v>
@@ -3249,7 +3102,7 @@
         <v>1</v>
       </c>
       <c r="K55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" t="b">
         <v>1</v>
@@ -3261,19 +3114,15 @@
         <v>1</v>
       </c>
       <c r="O55" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>2025-02-19</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>36</v>
+      </c>
+      <c r="B56" t="s">
+        <v>16</v>
       </c>
       <c r="C56" t="b">
         <v>1</v>
@@ -3315,16 +3164,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>2025-02-19</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>activity</t>
-        </is>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" t="s">
+        <v>17</v>
       </c>
       <c r="C57" t="b">
         <v>1</v>
@@ -3366,22 +3211,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>2025-02-19</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>weekly_activity</t>
-        </is>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58" t="s">
+        <v>18</v>
       </c>
       <c r="C58" t="b">
         <v>1</v>
       </c>
       <c r="D58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="b">
         <v>1</v>
@@ -3402,7 +3243,7 @@
         <v>1</v>
       </c>
       <c r="K58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" t="b">
         <v>1</v>
@@ -3414,19 +3255,15 @@
         <v>1</v>
       </c>
       <c r="O58" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>2025-02-20</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>37</v>
+      </c>
+      <c r="B59" t="s">
+        <v>16</v>
       </c>
       <c r="C59" t="b">
         <v>1</v>
@@ -3468,16 +3305,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>2025-02-20</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>activity</t>
-        </is>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60" t="s">
+        <v>17</v>
       </c>
       <c r="C60" t="b">
         <v>0</v>
@@ -3519,22 +3352,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>2025-02-20</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>weekly_activity</t>
-        </is>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61" t="s">
+        <v>18</v>
       </c>
       <c r="C61" t="b">
         <v>1</v>
       </c>
       <c r="D61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" t="b">
         <v>1</v>
@@ -3567,19 +3396,15 @@
         <v>1</v>
       </c>
       <c r="O61" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>2025-02-21</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" t="s">
+        <v>16</v>
       </c>
       <c r="C62" t="b">
         <v>1</v>
@@ -3621,16 +3446,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>2025-02-21</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>activity</t>
-        </is>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" t="s">
+        <v>17</v>
       </c>
       <c r="C63" t="b">
         <v>1</v>
@@ -3672,22 +3493,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>2025-02-21</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>weekly_activity</t>
-        </is>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" t="s">
+        <v>18</v>
       </c>
       <c r="C64" t="b">
         <v>1</v>
       </c>
       <c r="D64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" t="b">
         <v>1</v>
@@ -3720,19 +3537,15 @@
         <v>1</v>
       </c>
       <c r="O64" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>2025-02-22</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>39</v>
+      </c>
+      <c r="B65" t="s">
+        <v>16</v>
       </c>
       <c r="C65" t="b">
         <v>1</v>
@@ -3774,16 +3587,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>2025-02-22</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>activity</t>
-        </is>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66" t="s">
+        <v>17</v>
       </c>
       <c r="C66" t="b">
         <v>1</v>
@@ -3825,67 +3634,59 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>2025-02-22</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>weekly_activity</t>
-        </is>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>39</v>
+      </c>
+      <c r="B67" t="s">
+        <v>18</v>
       </c>
       <c r="C67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="b">
         <v>1</v>
       </c>
       <c r="K67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N67" t="b">
         <v>1</v>
       </c>
       <c r="O67" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>2025-02-23</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68" t="s">
+        <v>16</v>
       </c>
       <c r="C68" t="b">
         <v>1</v>
@@ -3927,16 +3728,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>2025-02-23</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>activity</t>
-        </is>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>40</v>
+      </c>
+      <c r="B69" t="s">
+        <v>17</v>
       </c>
       <c r="C69" t="b">
         <v>0</v>
@@ -3978,34 +3775,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>2025-02-23</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>weekly_activity</t>
-        </is>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>40</v>
+      </c>
+      <c r="B70" t="s">
+        <v>18</v>
       </c>
       <c r="C70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" t="b">
         <v>1</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="b">
         <v>1</v>
@@ -4014,31 +3807,27 @@
         <v>1</v>
       </c>
       <c r="K70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N70" t="b">
         <v>1</v>
       </c>
       <c r="O70" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>2025-02-24</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>41</v>
+      </c>
+      <c r="B71" t="s">
+        <v>16</v>
       </c>
       <c r="C71" t="b">
         <v>1</v>
@@ -4080,16 +3869,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>2025-02-24</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>activity</t>
-        </is>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>41</v>
+      </c>
+      <c r="B72" t="s">
+        <v>17</v>
       </c>
       <c r="C72" t="b">
         <v>1</v>
@@ -4131,25 +3916,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>2025-02-24</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>weekly_activity</t>
-        </is>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>41</v>
+      </c>
+      <c r="B73" t="s">
+        <v>18</v>
       </c>
       <c r="C73" t="b">
         <v>1</v>
       </c>
       <c r="D73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" t="b">
         <v>1</v>
@@ -4158,7 +3939,7 @@
         <v>1</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="b">
         <v>1</v>
@@ -4167,31 +3948,27 @@
         <v>1</v>
       </c>
       <c r="K73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N73" t="b">
         <v>1</v>
       </c>
       <c r="O73" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>2025-02-25</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>42</v>
+      </c>
+      <c r="B74" t="s">
+        <v>16</v>
       </c>
       <c r="C74" t="b">
         <v>0</v>
@@ -4233,16 +4010,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>2025-02-25</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>activity</t>
-        </is>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>42</v>
+      </c>
+      <c r="B75" t="s">
+        <v>17</v>
       </c>
       <c r="C75" t="b">
         <v>1</v>
@@ -4284,22 +4057,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>2025-02-25</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>weekly_activity</t>
-        </is>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>42</v>
+      </c>
+      <c r="B76" t="s">
+        <v>18</v>
       </c>
       <c r="C76" t="b">
         <v>1</v>
       </c>
       <c r="D76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" t="b">
         <v>1</v>
@@ -4311,7 +4080,7 @@
         <v>1</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="b">
         <v>1</v>
@@ -4320,31 +4089,27 @@
         <v>1</v>
       </c>
       <c r="K76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N76" t="b">
         <v>1</v>
       </c>
       <c r="O76" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>2025-02-26</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>43</v>
+      </c>
+      <c r="B77" t="s">
+        <v>16</v>
       </c>
       <c r="C77" t="b">
         <v>0</v>
@@ -4386,16 +4151,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>2025-02-26</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>activity</t>
-        </is>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>43</v>
+      </c>
+      <c r="B78" t="s">
+        <v>17</v>
       </c>
       <c r="C78" t="b">
         <v>1</v>
@@ -4437,22 +4198,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>2025-02-26</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>weekly_activity</t>
-        </is>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>43</v>
+      </c>
+      <c r="B79" t="s">
+        <v>18</v>
       </c>
       <c r="C79" t="b">
         <v>1</v>
       </c>
       <c r="D79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" t="b">
         <v>1</v>
@@ -4473,10 +4230,10 @@
         <v>1</v>
       </c>
       <c r="K79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M79" t="b">
         <v>1</v>
@@ -4485,19 +4242,15 @@
         <v>1</v>
       </c>
       <c r="O79" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>2025-02-27</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>sleep</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>44</v>
+      </c>
+      <c r="B80" t="s">
+        <v>16</v>
       </c>
       <c r="C80" t="b">
         <v>0</v>
@@ -4539,16 +4292,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>2025-02-27</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>activity</t>
-        </is>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>44</v>
+      </c>
+      <c r="B81" t="s">
+        <v>17</v>
       </c>
       <c r="C81" t="b">
         <v>1</v>
@@ -4590,22 +4339,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>2025-02-27</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>weekly_activity</t>
-        </is>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>44</v>
+      </c>
+      <c r="B82" t="s">
+        <v>18</v>
       </c>
       <c r="C82" t="b">
         <v>1</v>
       </c>
       <c r="D82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" t="b">
         <v>1</v>
@@ -4626,10 +4371,10 @@
         <v>1</v>
       </c>
       <c r="K82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M82" t="b">
         <v>1</v>
@@ -4638,7 +4383,148 @@
         <v>1</v>
       </c>
       <c r="O82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>45</v>
+      </c>
+      <c r="B83" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" t="b">
+        <v>0</v>
+      </c>
+      <c r="D83" t="b">
+        <v>0</v>
+      </c>
+      <c r="E83" t="b">
+        <v>1</v>
+      </c>
+      <c r="F83" t="b">
+        <v>0</v>
+      </c>
+      <c r="G83" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="b">
+        <v>1</v>
+      </c>
+      <c r="J83" t="b">
+        <v>0</v>
+      </c>
+      <c r="K83" t="b">
+        <v>1</v>
+      </c>
+      <c r="L83" t="b">
+        <v>1</v>
+      </c>
+      <c r="M83" t="b">
+        <v>1</v>
+      </c>
+      <c r="N83" t="b">
+        <v>1</v>
+      </c>
+      <c r="O83" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>45</v>
+      </c>
+      <c r="B84" t="s">
+        <v>17</v>
+      </c>
+      <c r="C84" t="b">
+        <v>1</v>
+      </c>
+      <c r="D84" t="b">
+        <v>0</v>
+      </c>
+      <c r="E84" t="b">
+        <v>1</v>
+      </c>
+      <c r="F84" t="b">
+        <v>0</v>
+      </c>
+      <c r="G84" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84" t="b">
+        <v>1</v>
+      </c>
+      <c r="I84" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84" t="b">
+        <v>1</v>
+      </c>
+      <c r="K84" t="b">
+        <v>0</v>
+      </c>
+      <c r="L84" t="b">
+        <v>0</v>
+      </c>
+      <c r="M84" t="b">
+        <v>1</v>
+      </c>
+      <c r="N84" t="b">
+        <v>0</v>
+      </c>
+      <c r="O84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>45</v>
+      </c>
+      <c r="B85" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85" t="b">
+        <v>1</v>
+      </c>
+      <c r="D85" t="b">
+        <v>1</v>
+      </c>
+      <c r="E85" t="b">
+        <v>1</v>
+      </c>
+      <c r="F85" t="b">
+        <v>1</v>
+      </c>
+      <c r="G85" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I85" t="b">
+        <v>1</v>
+      </c>
+      <c r="J85" t="b">
+        <v>1</v>
+      </c>
+      <c r="K85" t="b">
+        <v>1</v>
+      </c>
+      <c r="L85" t="b">
+        <v>1</v>
+      </c>
+      <c r="M85" t="b">
+        <v>1</v>
+      </c>
+      <c r="N85" t="b">
+        <v>1</v>
+      </c>
+      <c r="O85" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
